--- a/output/only_primer/one_plasmid_system_result/one_plasmid_design_F_Result.xlsx
+++ b/output/only_primer/one_plasmid_system_result/one_plasmid_design_F_Result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="245">
   <si>
     <t>ID</t>
   </si>
@@ -666,22 +666,94 @@
     <t>considered 11, GC content failed 1, high tm 6, ok 4</t>
   </si>
   <si>
-    <t>primer1</t>
-  </si>
-  <si>
-    <t>considered 561, GC content failed 341, not in any ok right region 220, ok 0</t>
+    <t>b0455;NC_000913.3:476447-476561:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4425;NC_000913.3:1287065-1287236:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4429;NC_000913.3:1492118-1492175:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4431;NC_000913.3:1770371-1770477:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4432;NC_000913.3:1923065-1923337:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4439;NC_000913.3:2313083-2313176:SEQUENCING_PRIMER_1</t>
   </si>
   <si>
     <t>b4440;NC_000913.3:2653854-2654158:SEQUENCING_PRIMER_1</t>
   </si>
   <si>
+    <t>b4442;NC_000913.3:2814801-2814874:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4444;NC_000913.3:2976101-2976189:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4445;NC_000913.3:2976303-2976385:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4454;NC_000913.3:3700135-3700199:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4459;NC_000913.3:4277925-4278066:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4616;NC_000913.3:3853117-3853257:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4698;NC_000913.3:1622816-1622914:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4701;NC_000913.3:2887352-2887411:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
     <t>b4718;NC_000913.3:3658991-3659082:SEQUENCING_PRIMER_1</t>
   </si>
   <si>
-    <t>considered 231, GC content failed 212, low tm 19, ok 0</t>
-  </si>
-  <si>
-    <t>considered 231, GC content failed 187, low tm 44, ok 0</t>
+    <t>b4760;NC_000913.3:3808165-3808238:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4761;NC_000913.3:2640594-2640686:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4764;NC_000913.3:765049-765150:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4804;NC_000913.3:3937044-3937278:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4805;NC_000913.3:2737380-2737542:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4808;NC_000913.3:708235-708333:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4809;NC_000913.3:194783-194844:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4810;NC_000913.3:92484-92658:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4827;NC_000913.3:2001911-2002106:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4828;NC_000913.3:1977207-1977302:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4833;NC_000913.3:1418404-1418502:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>b4835;NC_000913.3:607732-607792:SEQUENCING_PRIMER_1</t>
+  </si>
+  <si>
+    <t>considered 231, GC content failed 231, ok 0</t>
+  </si>
+  <si>
+    <t>considered 242, GC content failed 242, ok 0</t>
   </si>
 </sst>
 </file>
@@ -4128,77 +4200,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4215,9 +4216,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4257,13 +4258,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
         <v>115</v>
@@ -4286,27 +4287,1635 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>218</v>
       </c>
+      <c r="C5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" t="s">
+        <v>243</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
       <c r="C3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>220</v>
       </c>
-      <c r="D3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" t="s">
+        <v>244</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" t="s">
+        <v>244</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>0</v>
       </c>
     </row>

--- a/output/only_primer/one_plasmid_system_result/one_plasmid_design_F_Result.xlsx
+++ b/output/only_primer/one_plasmid_system_result/one_plasmid_design_F_Result.xlsx
@@ -19,81 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>PRIMER_LEFT_EXPLAIN</t>
-  </si>
-  <si>
-    <t>PRIMER_RIGHT_EXPLAIN</t>
-  </si>
-  <si>
-    <t>PRIMER_PAIR_EXPLAIN</t>
-  </si>
-  <si>
-    <t>PRIMER_LEFT_NUM_RETURNED</t>
-  </si>
-  <si>
-    <t>PRIMER_RIGHT_NUM_RETURNED</t>
-  </si>
-  <si>
-    <t>PRIMER_INTERNAL_NUM_RETURNED</t>
-  </si>
-  <si>
-    <t>PRIMER_PAIR_NUM_RETURNED</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
   <si>
     <t>No.</t>
-  </si>
-  <si>
-    <t>Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092;uha</t>
-  </si>
-  <si>
-    <t>Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875;uha</t>
-  </si>
-  <si>
-    <t>considered 11, low tm 2, ok 9</t>
-  </si>
-  <si>
-    <t>considered 11, low tm 8, high hairpin stability 3, ok 0</t>
-  </si>
-  <si>
-    <t>considered 11, low tm 2, high hairpin stability 9, ok 0</t>
-  </si>
-  <si>
-    <t>considered 11, low tm 7, ok 4</t>
-  </si>
-  <si>
-    <t>considered 0, ok 0</t>
-  </si>
-  <si>
-    <t>Cgl0006_1176_G_A_sub;BA000036.3:6529-6530;dha</t>
-  </si>
-  <si>
-    <t>Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092;dha</t>
-  </si>
-  <si>
-    <t>Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020;dha</t>
-  </si>
-  <si>
-    <t>Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378;dha</t>
-  </si>
-  <si>
-    <t>considered 11, low tm 1, ok 10</t>
-  </si>
-  <si>
-    <t>considered 11, low tm 11, ok 0</t>
-  </si>
-  <si>
-    <t>considered 11, low tm 7, high hairpin stability 4, ok 0</t>
-  </si>
-  <si>
-    <t>considered 11, low tm 5, high hairpin stability 6, ok 0</t>
-  </si>
-  <si>
-    <t>considered 11, high hairpin stability 11, ok 0</t>
   </si>
 </sst>
 </file>
@@ -451,96 +379,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -551,154 +397,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -717,7 +423,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +441,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +459,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +477,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
